--- a/biology/Botanique/Hoya_kerrii/Hoya_kerrii.xlsx
+++ b/biology/Botanique/Hoya_kerrii/Hoya_kerrii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya kerrii est une espèce de plantes du genre Hoya. Elle est dédiée à Arthur Francis George Kerr, un médecin britannique, collectionneur de plantes et auteur de livres de botanique.
 Elle est appréciée pour ses feuilles charnues en forme de cœur, qui lui valent le surnom de "Lucky heart". Elle est parfois commercialisée par la grande distribution à l'occasion de la Saint-Valentin.
-Son aire de répartition inclut la Chine du Sud, le Vietnam, le Laos, le Cambodge (où elle est appelée voa trâchiek dâmrei វល្លិត្រចៀកដំរី « liane oreille d'éléphant »)[1], la Thaïlande et l'île indonésienne de Java).
+Son aire de répartition inclut la Chine du Sud, le Vietnam, le Laos, le Cambodge (où elle est appelée voa trâchiek dâmrei វល្លិត្រចៀកដំរី « liane oreille d'éléphant »), la Thaïlande et l'île indonésienne de Java).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya kerrii est une plante grimpante pouvant atteindre 4 m. Ses tiges ont un diamètre de l'ordre de 7 mm. Elles portent des feuilles charnues en forme de cœur inversé de 6 cm de large environ et 5 mm d'épaisseur.
 Les plantes adultes portent des inflorescences de 5 cm de diamètre avec jusqu'à 25 fleurs élémentaires. Elles portent des points de nectar de couleur rouge foncé à brun. Odeur absente ou faible.
@@ -547,7 +561,9 @@
           <t>Culture comme plante d'appartement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardineries vendent de jeunes sujets se présentant comme une feuille un peu épaisse en forme de cœur plantée dans un pot. Elle reste inchangée de nombreux mois. Puis elle commence à pousser comme une plante grimpante de l'ordre de 1 mètre par an.
 			Jeune sujet resté inchangé pendant 2 ans
